--- a/storage/excel/sum91.xlsx
+++ b/storage/excel/sum91.xlsx
@@ -1,30 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\survey\storage\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>บทที่ 9 ข้อมูลการใช้พลังงาน</t>
   </si>
@@ -152,391 +143,367 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF7CAAC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC5DEB5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="13">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="58">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="5" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="5" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -551,44 +518,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -616,31 +583,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -668,23 +618,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -696,209 +629,247 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:BO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="BG24" sqref="BG24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="16" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="true" style="0"/>
+    <col min="2" max="2" width="16.5" customWidth="true" style="0"/>
+    <col min="3" max="3" width="24.125" customWidth="true" style="0"/>
+    <col min="4" max="4" width="14.875" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.75" customWidth="true" style="0"/>
+    <col min="6" max="6" width="6.75" customWidth="true" style="0"/>
+    <col min="7" max="7" width="6.75" customWidth="true" style="0"/>
+    <col min="8" max="8" width="6.75" customWidth="true" style="0"/>
+    <col min="9" max="9" width="6.75" customWidth="true" style="0"/>
+    <col min="10" max="10" width="6.75" customWidth="true" style="0"/>
+    <col min="11" max="11" width="6.75" customWidth="true" style="0"/>
+    <col min="12" max="12" width="6.75" customWidth="true" style="0"/>
+    <col min="13" max="13" width="6.75" customWidth="true" style="0"/>
+    <col min="14" max="14" width="6.75" customWidth="true" style="0"/>
+    <col min="15" max="15" width="6.75" customWidth="true" style="0"/>
+    <col min="16" max="16" width="6.75" customWidth="true" style="0"/>
+    <col min="18" max="18" width="16.5" customWidth="true" style="0"/>
+    <col min="19" max="19" width="24.125" customWidth="true" style="0"/>
+    <col min="20" max="20" width="14.875" customWidth="true" style="0"/>
+    <col min="21" max="21" width="7.75" customWidth="true" style="0"/>
+    <col min="22" max="22" width="4.75" customWidth="true" style="0"/>
+    <col min="23" max="23" width="7.75" customWidth="true" style="0"/>
+    <col min="24" max="24" width="4.75" customWidth="true" style="0"/>
+    <col min="25" max="25" width="7.75" customWidth="true" style="0"/>
+    <col min="26" max="26" width="4.75" customWidth="true" style="0"/>
+    <col min="27" max="27" width="7.75" customWidth="true" style="0"/>
+    <col min="28" max="28" width="4.75" customWidth="true" style="0"/>
+    <col min="29" max="29" width="7.75" customWidth="true" style="0"/>
+    <col min="30" max="30" width="4.75" customWidth="true" style="0"/>
+    <col min="31" max="31" width="7.75" customWidth="true" style="0"/>
+    <col min="32" max="32" width="4.75" customWidth="true" style="0"/>
+    <col min="34" max="34" width="16.5" customWidth="true" style="0"/>
+    <col min="35" max="35" width="24.125" customWidth="true" style="0"/>
+    <col min="36" max="36" width="14.875" customWidth="true" style="0"/>
+    <col min="37" max="37" width="6.875" customWidth="true" style="0"/>
+    <col min="38" max="38" width="7.5" customWidth="true" style="0"/>
+    <col min="39" max="39" width="5.25" customWidth="true" style="0"/>
+    <col min="40" max="40" width="7.5" customWidth="true" style="0"/>
+    <col min="41" max="41" width="5.25" customWidth="true" style="0"/>
+    <col min="42" max="42" width="7.5" customWidth="true" style="0"/>
+    <col min="43" max="43" width="5.25" customWidth="true" style="0"/>
+    <col min="44" max="44" width="7.5" customWidth="true" style="0"/>
+    <col min="45" max="45" width="5.25" customWidth="true" style="0"/>
+    <col min="46" max="46" width="7.5" customWidth="true" style="0"/>
+    <col min="47" max="47" width="5.25" customWidth="true" style="0"/>
+    <col min="48" max="48" width="7.5" customWidth="true" style="0"/>
+    <col min="49" max="49" width="5.25" customWidth="true" style="0"/>
+    <col min="51" max="51" width="16.5" customWidth="true" style="0"/>
+    <col min="52" max="52" width="24.125" customWidth="true" style="0"/>
+    <col min="53" max="53" width="14.875" customWidth="true" style="0"/>
+    <col min="54" max="54" width="7.75" customWidth="true" style="0"/>
+    <col min="55" max="55" width="4.75" customWidth="true" style="0"/>
+    <col min="56" max="56" width="7.75" customWidth="true" style="0"/>
+    <col min="57" max="57" width="4.75" customWidth="true" style="0"/>
+    <col min="58" max="58" width="7.75" customWidth="true" style="0"/>
+    <col min="59" max="59" width="4.75" customWidth="true" style="0"/>
+    <col min="60" max="60" width="7.75" customWidth="true" style="0"/>
+    <col min="61" max="61" width="4.75" customWidth="true" style="0"/>
+    <col min="62" max="62" width="7.75" customWidth="true" style="0"/>
+    <col min="63" max="63" width="4.75" customWidth="true" style="0"/>
+    <col min="64" max="64" width="7.75" customWidth="true" style="0"/>
+    <col min="65" max="65" width="4.75" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:67">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -966,7 +937,7 @@
       <c r="BM1" s="1"/>
       <c r="BN1" s="2"/>
     </row>
-    <row r="2" spans="1:67" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:67" customHeight="1" ht="19.5">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1034,7 +1005,7 @@
       <c r="BK2" s="4"/>
       <c r="BL2" s="4"/>
     </row>
-    <row r="3" spans="1:67" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:67" customHeight="1" ht="19.5">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1100,7 +1071,7 @@
       <c r="BK3" s="4"/>
       <c r="BL3" s="4"/>
     </row>
-    <row r="4" spans="1:67" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:67" customHeight="1" ht="19.5">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -1168,7 +1139,7 @@
       <c r="BK4" s="4"/>
       <c r="BL4" s="4"/>
     </row>
-    <row r="5" spans="1:67" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:67" customHeight="1" ht="19.5">
       <c r="A5" s="5"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1234,7 +1205,7 @@
       <c r="BK5" s="4"/>
       <c r="BL5" s="4"/>
     </row>
-    <row r="6" spans="1:67" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:67" customHeight="1" ht="19.5">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
@@ -1303,7 +1274,7 @@
       <c r="BL6" s="4"/>
       <c r="BO6" s="5"/>
     </row>
-    <row r="7" spans="1:67" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:67" customHeight="1" ht="19.5">
       <c r="A7" s="5"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1370,7 +1341,7 @@
       <c r="BL7" s="4"/>
       <c r="BO7" s="5"/>
     </row>
-    <row r="8" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:67" customHeight="1" ht="14.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>3</v>
@@ -1447,7 +1418,7 @@
       <c r="BN8" s="5"/>
       <c r="BO8" s="5"/>
     </row>
-    <row r="9" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:67" customHeight="1" ht="14.25">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
         <v>7</v>
@@ -1524,7 +1495,7 @@
       <c r="BN9" s="5"/>
       <c r="BO9" s="5"/>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:67">
       <c r="A10" s="5"/>
       <c r="B10" s="11" t="s">
         <v>11</v>
@@ -1619,7 +1590,7 @@
       <c r="BN10" s="5"/>
       <c r="BO10" s="5"/>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:67">
       <c r="A11" s="5"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1736,7 +1707,7 @@
       <c r="BN11" s="5"/>
       <c r="BO11" s="5"/>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:67">
       <c r="A12" s="5"/>
       <c r="B12" s="23" t="s">
         <v>18</v>
@@ -1925,7 +1896,7 @@
       <c r="BN12" s="5"/>
       <c r="BO12" s="5"/>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:67">
       <c r="A13" s="5"/>
       <c r="B13" s="32" t="s">
         <v>27</v>
@@ -1936,12 +1907,24 @@
       <c r="D13" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
+      <c r="E13" s="56">
+        <v>67233</v>
+      </c>
+      <c r="F13" s="56">
+        <v>4.76</v>
+      </c>
+      <c r="G13" s="56">
+        <v>79026</v>
+      </c>
+      <c r="H13" s="56">
+        <v>2.59</v>
+      </c>
+      <c r="I13" s="56">
+        <v>164026.21221318</v>
+      </c>
+      <c r="J13" s="56">
+        <v>3.67</v>
+      </c>
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
@@ -1958,14 +1941,24 @@
       <c r="T13" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="U13" s="35">
-        <v>5</v>
-      </c>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
+      <c r="U13" s="56">
+        <v>2.54</v>
+      </c>
+      <c r="V13" s="56">
+        <v>0.3</v>
+      </c>
+      <c r="W13" s="56">
+        <v>1.67</v>
+      </c>
+      <c r="X13" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="Y13" s="56">
+        <v>2.11</v>
+      </c>
+      <c r="Z13" s="56">
+        <v>0.16</v>
+      </c>
       <c r="AA13" s="35"/>
       <c r="AB13" s="35"/>
       <c r="AC13" s="35"/>
@@ -1985,12 +1978,24 @@
       <c r="AK13" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AL13" s="35"/>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="35"/>
-      <c r="AO13" s="35"/>
-      <c r="AP13" s="35"/>
-      <c r="AQ13" s="35"/>
+      <c r="AL13" s="56">
+        <v>1.39</v>
+      </c>
+      <c r="AM13" s="56">
+        <v>0.12</v>
+      </c>
+      <c r="AN13" s="56">
+        <v>0.68</v>
+      </c>
+      <c r="AO13" s="56">
+        <v>0.06</v>
+      </c>
+      <c r="AP13" s="56">
+        <v>2.07</v>
+      </c>
+      <c r="AQ13" s="56">
+        <v>0.18</v>
+      </c>
       <c r="AR13" s="35"/>
       <c r="AS13" s="35"/>
       <c r="AT13" s="35"/>
@@ -2007,12 +2012,24 @@
       <c r="BA13" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="BB13" s="35"/>
-      <c r="BC13" s="35"/>
-      <c r="BD13" s="35"/>
-      <c r="BE13" s="35"/>
-      <c r="BF13" s="35"/>
-      <c r="BG13" s="35"/>
+      <c r="BB13" s="56">
+        <v>2.54</v>
+      </c>
+      <c r="BC13" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="BD13" s="56">
+        <v>2.61</v>
+      </c>
+      <c r="BE13" s="56">
+        <v>0.04</v>
+      </c>
+      <c r="BF13" s="56">
+        <v>2.57</v>
+      </c>
+      <c r="BG13" s="56">
+        <v>0.07</v>
+      </c>
       <c r="BH13" s="35"/>
       <c r="BI13" s="35"/>
       <c r="BJ13" s="35"/>
@@ -2022,7 +2039,7 @@
       <c r="BN13" s="5"/>
       <c r="BO13" s="5"/>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:67">
       <c r="A14" s="5"/>
       <c r="B14" s="32"/>
       <c r="C14" s="36" t="s">
@@ -2031,12 +2048,24 @@
       <c r="D14" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
+      <c r="E14" s="56">
+        <v>245694</v>
+      </c>
+      <c r="F14" s="56">
+        <v>17.38</v>
+      </c>
+      <c r="G14" s="56">
+        <v>249652</v>
+      </c>
+      <c r="H14" s="56">
+        <v>8.18</v>
+      </c>
+      <c r="I14" s="56">
+        <v>570781.82896824</v>
+      </c>
+      <c r="J14" s="56">
+        <v>12.78</v>
+      </c>
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
@@ -2051,12 +2080,24 @@
       <c r="T14" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
+      <c r="U14" s="56">
+        <v>3.76</v>
+      </c>
+      <c r="V14" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="W14" s="56">
+        <v>3.12</v>
+      </c>
+      <c r="X14" s="56">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="56">
+        <v>3.44</v>
+      </c>
+      <c r="Z14" s="56">
+        <v>0.01</v>
+      </c>
       <c r="AA14" s="35"/>
       <c r="AB14" s="35"/>
       <c r="AC14" s="35"/>
@@ -2074,12 +2115,24 @@
       <c r="AK14" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="35"/>
-      <c r="AQ14" s="35"/>
+      <c r="AL14" s="56">
+        <v>21.93</v>
+      </c>
+      <c r="AM14" s="56">
+        <v>1.87</v>
+      </c>
+      <c r="AN14" s="56">
+        <v>10.54</v>
+      </c>
+      <c r="AO14" s="56">
+        <v>0.9</v>
+      </c>
+      <c r="AP14" s="56">
+        <v>32.47</v>
+      </c>
+      <c r="AQ14" s="56">
+        <v>2.77</v>
+      </c>
       <c r="AR14" s="35"/>
       <c r="AS14" s="35"/>
       <c r="AT14" s="35"/>
@@ -2094,12 +2147,24 @@
       <c r="BA14" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="BB14" s="35"/>
-      <c r="BC14" s="35"/>
-      <c r="BD14" s="35"/>
-      <c r="BE14" s="35"/>
-      <c r="BF14" s="35"/>
-      <c r="BG14" s="35"/>
+      <c r="BB14" s="56">
+        <v>3.41</v>
+      </c>
+      <c r="BC14" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="BD14" s="56">
+        <v>3.07</v>
+      </c>
+      <c r="BE14" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="BF14" s="56">
+        <v>3.24</v>
+      </c>
+      <c r="BG14" s="56">
+        <v>0.01</v>
+      </c>
       <c r="BH14" s="35"/>
       <c r="BI14" s="35"/>
       <c r="BJ14" s="35"/>
@@ -2109,19 +2174,31 @@
       <c r="BN14" s="5"/>
       <c r="BO14" s="5"/>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:67">
       <c r="A15" s="5"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
+      <c r="E15" s="56">
+        <v>1136482</v>
+      </c>
+      <c r="F15" s="56">
+        <v>80.39</v>
+      </c>
+      <c r="G15" s="56">
+        <v>2318714</v>
+      </c>
+      <c r="H15" s="56">
+        <v>75.94</v>
+      </c>
+      <c r="I15" s="56">
+        <v>3491636.4101651</v>
+      </c>
+      <c r="J15" s="56">
+        <v>78.16</v>
+      </c>
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
       <c r="M15" s="35"/>
@@ -2134,12 +2211,24 @@
       <c r="T15" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
+      <c r="U15" s="56">
+        <v>4.27</v>
+      </c>
+      <c r="V15" s="56">
+        <v>0</v>
+      </c>
+      <c r="W15" s="56">
+        <v>3.75</v>
+      </c>
+      <c r="X15" s="56">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="56">
+        <v>4.01</v>
+      </c>
+      <c r="Z15" s="56">
+        <v>0</v>
+      </c>
       <c r="AA15" s="35"/>
       <c r="AB15" s="35"/>
       <c r="AC15" s="35"/>
@@ -2155,12 +2244,24 @@
       <c r="AK15" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="35"/>
-      <c r="AO15" s="35"/>
-      <c r="AP15" s="35"/>
-      <c r="AQ15" s="35"/>
+      <c r="AL15" s="56">
+        <v>3661.93</v>
+      </c>
+      <c r="AM15" s="56">
+        <v>312.03</v>
+      </c>
+      <c r="AN15" s="56">
+        <v>13835.08</v>
+      </c>
+      <c r="AO15" s="56">
+        <v>1178.89</v>
+      </c>
+      <c r="AP15" s="56">
+        <v>17497.01</v>
+      </c>
+      <c r="AQ15" s="56">
+        <v>1490.92</v>
+      </c>
       <c r="AR15" s="35"/>
       <c r="AS15" s="35"/>
       <c r="AT15" s="35"/>
@@ -2173,12 +2274,24 @@
       <c r="BA15" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="BB15" s="35"/>
-      <c r="BC15" s="35"/>
-      <c r="BD15" s="35"/>
-      <c r="BE15" s="35"/>
-      <c r="BF15" s="35"/>
-      <c r="BG15" s="35"/>
+      <c r="BB15" s="56">
+        <v>2.76</v>
+      </c>
+      <c r="BC15" s="56">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="56">
+        <v>3</v>
+      </c>
+      <c r="BE15" s="56">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="56">
+        <v>2.88</v>
+      </c>
+      <c r="BG15" s="56">
+        <v>0</v>
+      </c>
       <c r="BH15" s="35"/>
       <c r="BI15" s="35"/>
       <c r="BJ15" s="35"/>
@@ -2188,19 +2301,31 @@
       <c r="BN15" s="5"/>
       <c r="BO15" s="5"/>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:67">
       <c r="A16" s="5"/>
       <c r="B16" s="32"/>
       <c r="C16" s="40"/>
       <c r="D16" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
+      <c r="E16" s="56">
+        <v>534854</v>
+      </c>
+      <c r="F16" s="56">
+        <v>37.83</v>
+      </c>
+      <c r="G16" s="56">
+        <v>1359617</v>
+      </c>
+      <c r="H16" s="56">
+        <v>44.53</v>
+      </c>
+      <c r="I16" s="56">
+        <v>1839565.3408282</v>
+      </c>
+      <c r="J16" s="56">
+        <v>41.18</v>
+      </c>
       <c r="K16" s="35"/>
       <c r="L16" s="35"/>
       <c r="M16" s="35"/>
@@ -2213,12 +2338,24 @@
       <c r="T16" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
+      <c r="U16" s="56">
+        <v>3.54</v>
+      </c>
+      <c r="V16" s="56">
+        <v>0</v>
+      </c>
+      <c r="W16" s="56">
+        <v>3.15</v>
+      </c>
+      <c r="X16" s="56">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="56">
+        <v>3.35</v>
+      </c>
+      <c r="Z16" s="56">
+        <v>0</v>
+      </c>
       <c r="AA16" s="35"/>
       <c r="AB16" s="35"/>
       <c r="AC16" s="35"/>
@@ -2234,12 +2371,24 @@
       <c r="AK16" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="35"/>
-      <c r="AO16" s="35"/>
-      <c r="AP16" s="35"/>
-      <c r="AQ16" s="35"/>
+      <c r="AL16" s="56">
+        <v>108.47</v>
+      </c>
+      <c r="AM16" s="56">
+        <v>9.24</v>
+      </c>
+      <c r="AN16" s="56">
+        <v>1426.95</v>
+      </c>
+      <c r="AO16" s="56">
+        <v>121.59</v>
+      </c>
+      <c r="AP16" s="56">
+        <v>1535.42</v>
+      </c>
+      <c r="AQ16" s="56">
+        <v>130.83</v>
+      </c>
       <c r="AR16" s="35"/>
       <c r="AS16" s="35"/>
       <c r="AT16" s="35"/>
@@ -2252,12 +2401,24 @@
       <c r="BA16" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="BB16" s="35"/>
-      <c r="BC16" s="35"/>
-      <c r="BD16" s="35"/>
-      <c r="BE16" s="35"/>
-      <c r="BF16" s="35"/>
-      <c r="BG16" s="35"/>
+      <c r="BB16" s="56">
+        <v>2.76</v>
+      </c>
+      <c r="BC16" s="56">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="56">
+        <v>2.88</v>
+      </c>
+      <c r="BE16" s="56">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="56">
+        <v>2.82</v>
+      </c>
+      <c r="BG16" s="56">
+        <v>0</v>
+      </c>
       <c r="BH16" s="35"/>
       <c r="BI16" s="35"/>
       <c r="BJ16" s="35"/>
@@ -2267,7 +2428,7 @@
       <c r="BN16" s="5"/>
       <c r="BO16" s="5"/>
     </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:67">
       <c r="A17" s="5"/>
       <c r="B17" s="32"/>
       <c r="C17" s="37" t="s">
@@ -2276,12 +2437,24 @@
       <c r="D17" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+      <c r="E17" s="56">
+        <v>574391</v>
+      </c>
+      <c r="F17" s="56">
+        <v>40.63</v>
+      </c>
+      <c r="G17" s="56">
+        <v>1181807</v>
+      </c>
+      <c r="H17" s="56">
+        <v>38.71</v>
+      </c>
+      <c r="I17" s="56">
+        <v>1771956.7520328</v>
+      </c>
+      <c r="J17" s="56">
+        <v>39.67</v>
+      </c>
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
       <c r="M17" s="35"/>
@@ -2296,12 +2469,24 @@
       <c r="T17" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
+      <c r="U17" s="56">
+        <v>3.96</v>
+      </c>
+      <c r="V17" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="W17" s="56">
+        <v>3.01</v>
+      </c>
+      <c r="X17" s="56">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="56">
+        <v>3.49</v>
+      </c>
+      <c r="Z17" s="56">
+        <v>0</v>
+      </c>
       <c r="AA17" s="35"/>
       <c r="AB17" s="35"/>
       <c r="AC17" s="35"/>
@@ -2319,12 +2504,24 @@
       <c r="AK17" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="35"/>
-      <c r="AQ17" s="35"/>
+      <c r="AL17" s="56">
+        <v>203.1</v>
+      </c>
+      <c r="AM17" s="56">
+        <v>17.31</v>
+      </c>
+      <c r="AN17" s="56">
+        <v>818.68</v>
+      </c>
+      <c r="AO17" s="56">
+        <v>69.76</v>
+      </c>
+      <c r="AP17" s="56">
+        <v>1021.78</v>
+      </c>
+      <c r="AQ17" s="56">
+        <v>87.07</v>
+      </c>
       <c r="AR17" s="35"/>
       <c r="AS17" s="35"/>
       <c r="AT17" s="35"/>
@@ -2339,12 +2536,24 @@
       <c r="BA17" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="BB17" s="35"/>
-      <c r="BC17" s="35"/>
-      <c r="BD17" s="35"/>
-      <c r="BE17" s="35"/>
-      <c r="BF17" s="35"/>
-      <c r="BG17" s="35"/>
+      <c r="BB17" s="56">
+        <v>2.77</v>
+      </c>
+      <c r="BC17" s="56">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="56">
+        <v>2.71</v>
+      </c>
+      <c r="BE17" s="56">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="56">
+        <v>2.74</v>
+      </c>
+      <c r="BG17" s="56">
+        <v>0</v>
+      </c>
       <c r="BH17" s="35"/>
       <c r="BI17" s="35"/>
       <c r="BJ17" s="35"/>
@@ -2354,7 +2563,7 @@
       <c r="BN17" s="5"/>
       <c r="BO17" s="5"/>
     </row>
-    <row r="18" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:67">
       <c r="A18" s="5"/>
       <c r="B18" s="40"/>
       <c r="C18" s="37" t="s">
@@ -2363,12 +2572,24 @@
       <c r="D18" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
+      <c r="E18" s="56">
+        <v>54776</v>
+      </c>
+      <c r="F18" s="56">
+        <v>3.87</v>
+      </c>
+      <c r="G18" s="56">
+        <v>66454</v>
+      </c>
+      <c r="H18" s="56">
+        <v>2.18</v>
+      </c>
+      <c r="I18" s="56">
+        <v>135149.51662881</v>
+      </c>
+      <c r="J18" s="56">
+        <v>3.03</v>
+      </c>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
@@ -2383,12 +2604,24 @@
       <c r="T18" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
+      <c r="U18" s="56">
+        <v>7.7</v>
+      </c>
+      <c r="V18" s="56">
+        <v>3.03</v>
+      </c>
+      <c r="W18" s="56">
+        <v>4.06</v>
+      </c>
+      <c r="X18" s="56">
+        <v>0.08</v>
+      </c>
+      <c r="Y18" s="56">
+        <v>5.88</v>
+      </c>
+      <c r="Z18" s="56">
+        <v>1.56</v>
+      </c>
       <c r="AA18" s="35"/>
       <c r="AB18" s="35"/>
       <c r="AC18" s="35"/>
@@ -2406,12 +2639,24 @@
       <c r="AK18" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="35"/>
-      <c r="AQ18" s="35"/>
+      <c r="AL18" s="56">
+        <v>0.11</v>
+      </c>
+      <c r="AM18" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="AN18" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="AO18" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="AP18" s="56">
+        <v>0.21</v>
+      </c>
+      <c r="AQ18" s="56">
+        <v>0.02</v>
+      </c>
       <c r="AR18" s="35"/>
       <c r="AS18" s="35"/>
       <c r="AT18" s="35"/>
@@ -2426,12 +2671,24 @@
       <c r="BA18" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="BB18" s="35"/>
-      <c r="BC18" s="35"/>
-      <c r="BD18" s="35"/>
-      <c r="BE18" s="35"/>
-      <c r="BF18" s="35"/>
-      <c r="BG18" s="35"/>
+      <c r="BB18" s="56">
+        <v>2.77</v>
+      </c>
+      <c r="BC18" s="56">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="56">
+        <v>2.71</v>
+      </c>
+      <c r="BE18" s="56">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="56">
+        <v>2.74</v>
+      </c>
+      <c r="BG18" s="56">
+        <v>0</v>
+      </c>
       <c r="BH18" s="35"/>
       <c r="BI18" s="35"/>
       <c r="BJ18" s="35"/>
@@ -2441,7 +2698,7 @@
       <c r="BN18" s="5"/>
       <c r="BO18" s="5"/>
     </row>
-    <row r="19" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:67">
       <c r="A19" s="5"/>
       <c r="B19" s="36" t="s">
         <v>37</v>
@@ -2452,12 +2709,24 @@
       <c r="D19" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
+      <c r="E19" s="56">
+        <v>21189</v>
+      </c>
+      <c r="F19" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="G19" s="56">
+        <v>21552</v>
+      </c>
+      <c r="H19" s="56">
+        <v>0.71</v>
+      </c>
+      <c r="I19" s="56">
+        <v>49240.878758222</v>
+      </c>
+      <c r="J19" s="56">
+        <v>1.1</v>
+      </c>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
@@ -2474,12 +2743,24 @@
       <c r="T19" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
+      <c r="U19" s="56">
+        <v>1.69</v>
+      </c>
+      <c r="V19" s="56">
+        <v>0.12</v>
+      </c>
+      <c r="W19" s="56">
+        <v>1.31</v>
+      </c>
+      <c r="X19" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="Y19" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="Z19" s="56">
+        <v>0.19</v>
+      </c>
       <c r="AA19" s="35"/>
       <c r="AB19" s="35"/>
       <c r="AC19" s="35"/>
@@ -2499,12 +2780,24 @@
       <c r="AK19" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AL19" s="35"/>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="35"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="35"/>
-      <c r="AQ19" s="35"/>
+      <c r="AL19" s="56">
+        <v>0.03</v>
+      </c>
+      <c r="AM19" s="56">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="AO19" s="56">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="AQ19" s="56">
+        <v>0</v>
+      </c>
       <c r="AR19" s="35"/>
       <c r="AS19" s="35"/>
       <c r="AT19" s="35"/>
@@ -2521,12 +2814,24 @@
       <c r="BA19" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="BB19" s="35"/>
-      <c r="BC19" s="35"/>
-      <c r="BD19" s="35"/>
-      <c r="BE19" s="35"/>
-      <c r="BF19" s="35"/>
-      <c r="BG19" s="35"/>
+      <c r="BB19" s="56">
+        <v>3.41</v>
+      </c>
+      <c r="BC19" s="56">
+        <v>0.55</v>
+      </c>
+      <c r="BD19" s="56">
+        <v>2.44</v>
+      </c>
+      <c r="BE19" s="56">
+        <v>0.47</v>
+      </c>
+      <c r="BF19" s="56">
+        <v>2.93</v>
+      </c>
+      <c r="BG19" s="56">
+        <v>0.51</v>
+      </c>
       <c r="BH19" s="35"/>
       <c r="BI19" s="35"/>
       <c r="BJ19" s="35"/>
@@ -2536,7 +2841,7 @@
       <c r="BN19" s="5"/>
       <c r="BO19" s="5"/>
     </row>
-    <row r="20" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:67">
       <c r="A20" s="5"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36" t="s">
@@ -2545,12 +2850,24 @@
       <c r="D20" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
+      <c r="E20" s="56">
+        <v>29999</v>
+      </c>
+      <c r="F20" s="56">
+        <v>2.12</v>
+      </c>
+      <c r="G20" s="56">
+        <v>61066</v>
+      </c>
+      <c r="H20" s="56">
+        <v>2</v>
+      </c>
+      <c r="I20" s="56">
+        <v>92064.384120534</v>
+      </c>
+      <c r="J20" s="56">
+        <v>2.06</v>
+      </c>
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
       <c r="M20" s="35"/>
@@ -2565,12 +2882,24 @@
       <c r="T20" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
+      <c r="U20" s="56">
+        <v>1.17</v>
+      </c>
+      <c r="V20" s="56">
+        <v>0.09</v>
+      </c>
+      <c r="W20" s="56">
+        <v>1.54</v>
+      </c>
+      <c r="X20" s="56">
+        <v>0.03</v>
+      </c>
+      <c r="Y20" s="56">
+        <v>1.35</v>
+      </c>
+      <c r="Z20" s="56">
+        <v>0.06</v>
+      </c>
       <c r="AA20" s="35"/>
       <c r="AB20" s="35"/>
       <c r="AC20" s="35"/>
@@ -2588,12 +2917,24 @@
       <c r="AK20" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AL20" s="35"/>
-      <c r="AM20" s="35"/>
-      <c r="AN20" s="35"/>
-      <c r="AO20" s="35"/>
-      <c r="AP20" s="35"/>
-      <c r="AQ20" s="35"/>
+      <c r="AL20" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="AM20" s="56">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="56">
+        <v>0.14</v>
+      </c>
+      <c r="AO20" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="AP20" s="56">
+        <v>0.16</v>
+      </c>
+      <c r="AQ20" s="56">
+        <v>0.01</v>
+      </c>
       <c r="AR20" s="35"/>
       <c r="AS20" s="35"/>
       <c r="AT20" s="35"/>
@@ -2608,12 +2949,24 @@
       <c r="BA20" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="BB20" s="35"/>
-      <c r="BC20" s="35"/>
-      <c r="BD20" s="35"/>
-      <c r="BE20" s="35"/>
-      <c r="BF20" s="35"/>
-      <c r="BG20" s="35"/>
+      <c r="BB20" s="56">
+        <v>3.81</v>
+      </c>
+      <c r="BC20" s="56">
+        <v>0.31</v>
+      </c>
+      <c r="BD20" s="56">
+        <v>2.23</v>
+      </c>
+      <c r="BE20" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="BF20" s="56">
+        <v>3.02</v>
+      </c>
+      <c r="BG20" s="56">
+        <v>0.17</v>
+      </c>
       <c r="BH20" s="35"/>
       <c r="BI20" s="35"/>
       <c r="BJ20" s="35"/>
@@ -2623,19 +2976,31 @@
       <c r="BN20" s="5"/>
       <c r="BO20" s="5"/>
     </row>
-    <row r="21" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:67">
       <c r="A21" s="5"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
       <c r="D21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
+      <c r="E21" s="56">
+        <v>305890</v>
+      </c>
+      <c r="F21" s="56">
+        <v>21.64</v>
+      </c>
+      <c r="G21" s="56">
+        <v>466975</v>
+      </c>
+      <c r="H21" s="56">
+        <v>15.29</v>
+      </c>
+      <c r="I21" s="56">
+        <v>824857.09865322</v>
+      </c>
+      <c r="J21" s="56">
+        <v>18.47</v>
+      </c>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
@@ -2648,12 +3013,24 @@
       <c r="T21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
+      <c r="U21" s="56">
+        <v>1.95</v>
+      </c>
+      <c r="V21" s="56">
+        <v>0</v>
+      </c>
+      <c r="W21" s="56">
+        <v>1.73</v>
+      </c>
+      <c r="X21" s="56">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="56">
+        <v>1.84</v>
+      </c>
+      <c r="Z21" s="56">
+        <v>0</v>
+      </c>
       <c r="AA21" s="35"/>
       <c r="AB21" s="35"/>
       <c r="AC21" s="35"/>
@@ -2669,12 +3046,24 @@
       <c r="AK21" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-      <c r="AO21" s="35"/>
-      <c r="AP21" s="35"/>
-      <c r="AQ21" s="35"/>
+      <c r="AL21" s="56">
+        <v>75.33</v>
+      </c>
+      <c r="AM21" s="56">
+        <v>6.42</v>
+      </c>
+      <c r="AN21" s="56">
+        <v>100.78</v>
+      </c>
+      <c r="AO21" s="56">
+        <v>8.59</v>
+      </c>
+      <c r="AP21" s="56">
+        <v>176.11</v>
+      </c>
+      <c r="AQ21" s="56">
+        <v>15.01</v>
+      </c>
       <c r="AR21" s="35"/>
       <c r="AS21" s="35"/>
       <c r="AT21" s="35"/>
@@ -2687,12 +3076,24 @@
       <c r="BA21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="BB21" s="35"/>
-      <c r="BC21" s="35"/>
-      <c r="BD21" s="35"/>
-      <c r="BE21" s="35"/>
-      <c r="BF21" s="35"/>
-      <c r="BG21" s="35"/>
+      <c r="BB21" s="56">
+        <v>2.66</v>
+      </c>
+      <c r="BC21" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="BD21" s="56">
+        <v>3.68</v>
+      </c>
+      <c r="BE21" s="56">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="56">
+        <v>3.17</v>
+      </c>
+      <c r="BG21" s="56">
+        <v>0.01</v>
+      </c>
       <c r="BH21" s="35"/>
       <c r="BI21" s="35"/>
       <c r="BJ21" s="35"/>
@@ -2702,19 +3103,31 @@
       <c r="BN21" s="5"/>
       <c r="BO21" s="5"/>
     </row>
-    <row r="22" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:67">
       <c r="A22" s="5"/>
       <c r="B22" s="32"/>
       <c r="C22" s="40"/>
       <c r="D22" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
+      <c r="E22" s="56">
+        <v>155459</v>
+      </c>
+      <c r="F22" s="56">
+        <v>11</v>
+      </c>
+      <c r="G22" s="56">
+        <v>301738</v>
+      </c>
+      <c r="H22" s="56">
+        <v>9.88</v>
+      </c>
+      <c r="I22" s="56">
+        <v>466326.56954644</v>
+      </c>
+      <c r="J22" s="56">
+        <v>10.44</v>
+      </c>
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
       <c r="M22" s="35"/>
@@ -2727,12 +3140,24 @@
       <c r="T22" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
+      <c r="U22" s="56">
+        <v>1.68</v>
+      </c>
+      <c r="V22" s="56">
+        <v>0</v>
+      </c>
+      <c r="W22" s="56">
+        <v>1.62</v>
+      </c>
+      <c r="X22" s="56">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="56">
+        <v>1.65</v>
+      </c>
+      <c r="Z22" s="56">
+        <v>0</v>
+      </c>
       <c r="AA22" s="35"/>
       <c r="AB22" s="35"/>
       <c r="AC22" s="35"/>
@@ -2748,12 +3173,24 @@
       <c r="AK22" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="35"/>
-      <c r="AQ22" s="35"/>
+      <c r="AL22" s="56">
+        <v>3.39</v>
+      </c>
+      <c r="AM22" s="56">
+        <v>0.29</v>
+      </c>
+      <c r="AN22" s="56">
+        <v>11.19</v>
+      </c>
+      <c r="AO22" s="56">
+        <v>0.95</v>
+      </c>
+      <c r="AP22" s="56">
+        <v>14.59</v>
+      </c>
+      <c r="AQ22" s="56">
+        <v>1.24</v>
+      </c>
       <c r="AR22" s="35"/>
       <c r="AS22" s="35"/>
       <c r="AT22" s="35"/>
@@ -2766,12 +3203,24 @@
       <c r="BA22" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="BB22" s="35"/>
-      <c r="BC22" s="35"/>
-      <c r="BD22" s="35"/>
-      <c r="BE22" s="35"/>
-      <c r="BF22" s="35"/>
-      <c r="BG22" s="35"/>
+      <c r="BB22" s="56">
+        <v>3.5</v>
+      </c>
+      <c r="BC22" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="BD22" s="56">
+        <v>3.43</v>
+      </c>
+      <c r="BE22" s="56">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="56">
+        <v>3.47</v>
+      </c>
+      <c r="BG22" s="56">
+        <v>0.01</v>
+      </c>
       <c r="BH22" s="35"/>
       <c r="BI22" s="35"/>
       <c r="BJ22" s="35"/>
@@ -2781,7 +3230,7 @@
       <c r="BN22" s="5"/>
       <c r="BO22" s="5"/>
     </row>
-    <row r="23" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:67">
       <c r="A23" s="5"/>
       <c r="B23" s="32"/>
       <c r="C23" s="37" t="s">
@@ -2790,12 +3239,24 @@
       <c r="D23" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
+      <c r="E23" s="56">
+        <v>137896</v>
+      </c>
+      <c r="F23" s="56">
+        <v>9.75</v>
+      </c>
+      <c r="G23" s="56">
+        <v>237079</v>
+      </c>
+      <c r="H23" s="56">
+        <v>7.76</v>
+      </c>
+      <c r="I23" s="56">
+        <v>391280.75613114</v>
+      </c>
+      <c r="J23" s="56">
+        <v>8.76</v>
+      </c>
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
@@ -2810,12 +3271,24 @@
       <c r="T23" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
+      <c r="U23" s="56">
+        <v>2.49</v>
+      </c>
+      <c r="V23" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="W23" s="56">
+        <v>1.66</v>
+      </c>
+      <c r="X23" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="Y23" s="56">
+        <v>2.08</v>
+      </c>
+      <c r="Z23" s="56">
+        <v>0.01</v>
+      </c>
       <c r="AA23" s="35"/>
       <c r="AB23" s="35"/>
       <c r="AC23" s="35"/>
@@ -2833,12 +3306,24 @@
       <c r="AK23" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="35"/>
-      <c r="AQ23" s="35"/>
+      <c r="AL23" s="56">
+        <v>4</v>
+      </c>
+      <c r="AM23" s="56">
+        <v>0.34</v>
+      </c>
+      <c r="AN23" s="56">
+        <v>6.63</v>
+      </c>
+      <c r="AO23" s="56">
+        <v>0.57</v>
+      </c>
+      <c r="AP23" s="56">
+        <v>10.63</v>
+      </c>
+      <c r="AQ23" s="56">
+        <v>0.91</v>
+      </c>
       <c r="AR23" s="35"/>
       <c r="AS23" s="35"/>
       <c r="AT23" s="35"/>
@@ -2853,12 +3338,24 @@
       <c r="BA23" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="BB23" s="35"/>
-      <c r="BC23" s="35"/>
-      <c r="BD23" s="35"/>
-      <c r="BE23" s="35"/>
-      <c r="BF23" s="35"/>
-      <c r="BG23" s="35"/>
+      <c r="BB23" s="56">
+        <v>3.15</v>
+      </c>
+      <c r="BC23" s="56">
+        <v>0.04</v>
+      </c>
+      <c r="BD23" s="56">
+        <v>2.89</v>
+      </c>
+      <c r="BE23" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="BF23" s="56">
+        <v>3.02</v>
+      </c>
+      <c r="BG23" s="56">
+        <v>0.02</v>
+      </c>
       <c r="BH23" s="35"/>
       <c r="BI23" s="35"/>
       <c r="BJ23" s="35"/>
@@ -2868,7 +3365,7 @@
       <c r="BN23" s="5"/>
       <c r="BO23" s="5"/>
     </row>
-    <row r="24" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:67">
       <c r="A24" s="5"/>
       <c r="B24" s="40"/>
       <c r="C24" s="37" t="s">
@@ -2877,12 +3374,24 @@
       <c r="D24" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
+      <c r="E24" s="56">
+        <v>24737</v>
+      </c>
+      <c r="F24" s="56">
+        <v>1.75</v>
+      </c>
+      <c r="G24" s="56">
+        <v>21552</v>
+      </c>
+      <c r="H24" s="56">
+        <v>0.71</v>
+      </c>
+      <c r="I24" s="56">
+        <v>54846.155554937</v>
+      </c>
+      <c r="J24" s="56">
+        <v>1.23</v>
+      </c>
       <c r="K24" s="35"/>
       <c r="L24" s="35"/>
       <c r="M24" s="35"/>
@@ -2897,12 +3406,24 @@
       <c r="T24" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
+      <c r="U24" s="56">
+        <v>5.11</v>
+      </c>
+      <c r="V24" s="56">
+        <v>0.57</v>
+      </c>
+      <c r="W24" s="56">
+        <v>3.63</v>
+      </c>
+      <c r="X24" s="56">
+        <v>0.78</v>
+      </c>
+      <c r="Y24" s="56">
+        <v>4.37</v>
+      </c>
+      <c r="Z24" s="56">
+        <v>0.67</v>
+      </c>
       <c r="AA24" s="35"/>
       <c r="AB24" s="35"/>
       <c r="AC24" s="35"/>
@@ -2920,12 +3441,24 @@
       <c r="AK24" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="35"/>
-      <c r="AQ24" s="35"/>
+      <c r="AL24" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="AM24" s="56">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="56">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="56">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="AQ24" s="56">
+        <v>0</v>
+      </c>
       <c r="AR24" s="35"/>
       <c r="AS24" s="35"/>
       <c r="AT24" s="35"/>
@@ -2940,12 +3473,24 @@
       <c r="BA24" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="BB24" s="35"/>
-      <c r="BC24" s="35"/>
-      <c r="BD24" s="35"/>
-      <c r="BE24" s="35"/>
-      <c r="BF24" s="35"/>
-      <c r="BG24" s="35"/>
+      <c r="BB24" s="56">
+        <v>2.04</v>
+      </c>
+      <c r="BC24" s="56">
+        <v>0.09</v>
+      </c>
+      <c r="BD24" s="56">
+        <v>1.72</v>
+      </c>
+      <c r="BE24" s="56">
+        <v>0.34</v>
+      </c>
+      <c r="BF24" s="56">
+        <v>1.88</v>
+      </c>
+      <c r="BG24" s="56">
+        <v>0.22</v>
+      </c>
       <c r="BH24" s="35"/>
       <c r="BI24" s="35"/>
       <c r="BJ24" s="35"/>
@@ -2955,7 +3500,7 @@
       <c r="BN24" s="5"/>
       <c r="BO24" s="5"/>
     </row>
-    <row r="25" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:67">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3040,7 +3585,7 @@
       <c r="BN25" s="5"/>
       <c r="BO25" s="5"/>
     </row>
-    <row r="26" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:67">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3082,12 +3627,24 @@
       <c r="AK26" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AL26" s="47"/>
-      <c r="AM26" s="47"/>
-      <c r="AN26" s="47"/>
-      <c r="AO26" s="47"/>
-      <c r="AP26" s="47"/>
-      <c r="AQ26" s="47"/>
+      <c r="AL26" s="57">
+        <v>4079.71</v>
+      </c>
+      <c r="AM26" s="57">
+        <v>347.63</v>
+      </c>
+      <c r="AN26" s="57">
+        <v>16210.79</v>
+      </c>
+      <c r="AO26" s="57">
+        <v>1381.32</v>
+      </c>
+      <c r="AP26" s="57">
+        <v>20290.5</v>
+      </c>
+      <c r="AQ26" s="57">
+        <v>1728.95</v>
+      </c>
       <c r="AR26" s="47"/>
       <c r="AS26" s="47"/>
       <c r="AT26" s="47"/>
@@ -3113,7 +3670,7 @@
       <c r="BN26" s="5"/>
       <c r="BO26" s="5"/>
     </row>
-    <row r="27" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:67">
       <c r="AH27" s="48" t="s">
         <v>40</v>
       </c>
@@ -3148,7 +3705,7 @@
       <c r="AW27" s="52"/>
       <c r="BO27" s="5"/>
     </row>
-    <row r="30" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:67">
       <c r="AH30" s="53"/>
       <c r="AI30" s="54"/>
       <c r="AJ30" s="54"/>
@@ -3166,7 +3723,7 @@
       <c r="AV30" s="5"/>
       <c r="AW30" s="5"/>
     </row>
-    <row r="31" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:67">
       <c r="AH31" s="53"/>
       <c r="AI31" s="53"/>
       <c r="AJ31" s="54"/>
@@ -3184,7 +3741,7 @@
       <c r="AV31" s="5"/>
       <c r="AW31" s="5"/>
     </row>
-    <row r="32" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:67">
       <c r="AH32" s="53"/>
       <c r="AI32" s="53"/>
       <c r="AJ32" s="54"/>
@@ -3202,7 +3759,7 @@
       <c r="AV32" s="5"/>
       <c r="AW32" s="5"/>
     </row>
-    <row r="33" spans="34:49" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:67">
       <c r="AH33" s="53"/>
       <c r="AI33" s="53"/>
       <c r="AJ33" s="54"/>
@@ -3220,7 +3777,7 @@
       <c r="AV33" s="5"/>
       <c r="AW33" s="5"/>
     </row>
-    <row r="34" spans="34:49" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:67">
       <c r="AH34" s="53"/>
       <c r="AI34" s="54"/>
       <c r="AJ34" s="54"/>
@@ -3238,7 +3795,7 @@
       <c r="AV34" s="5"/>
       <c r="AW34" s="5"/>
     </row>
-    <row r="35" spans="34:49" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:67">
       <c r="AH35" s="53"/>
       <c r="AI35" s="54"/>
       <c r="AJ35" s="54"/>
@@ -3256,7 +3813,7 @@
       <c r="AV35" s="5"/>
       <c r="AW35" s="5"/>
     </row>
-    <row r="36" spans="34:49" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:67">
       <c r="AH36" s="53"/>
       <c r="AI36" s="54"/>
       <c r="AJ36" s="54"/>
@@ -3274,7 +3831,7 @@
       <c r="AV36" s="5"/>
       <c r="AW36" s="5"/>
     </row>
-    <row r="37" spans="34:49" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:67">
       <c r="AH37" s="53"/>
       <c r="AI37" s="53"/>
       <c r="AJ37" s="54"/>
@@ -3292,7 +3849,7 @@
       <c r="AV37" s="5"/>
       <c r="AW37" s="5"/>
     </row>
-    <row r="38" spans="34:49" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:67">
       <c r="AH38" s="53"/>
       <c r="AI38" s="53"/>
       <c r="AJ38" s="54"/>
@@ -3310,7 +3867,7 @@
       <c r="AV38" s="5"/>
       <c r="AW38" s="5"/>
     </row>
-    <row r="39" spans="34:49" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:67">
       <c r="AH39" s="53"/>
       <c r="AI39" s="53"/>
       <c r="AJ39" s="54"/>
@@ -3328,7 +3885,7 @@
       <c r="AV39" s="5"/>
       <c r="AW39" s="5"/>
     </row>
-    <row r="40" spans="34:49" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:67">
       <c r="AH40" s="53"/>
       <c r="AI40" s="54"/>
       <c r="AJ40" s="54"/>
@@ -3346,7 +3903,7 @@
       <c r="AV40" s="5"/>
       <c r="AW40" s="5"/>
     </row>
-    <row r="41" spans="34:49" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:67">
       <c r="AH41" s="53"/>
       <c r="AI41" s="54"/>
       <c r="AJ41" s="54"/>
@@ -3365,7 +3922,8 @@
       <c r="AW41" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
     <mergeCell ref="AZ20:AZ22"/>
     <mergeCell ref="AH25:AJ25"/>
     <mergeCell ref="AH26:AJ26"/>
@@ -3431,6 +3989,16 @@
     <mergeCell ref="AH9:AW9"/>
     <mergeCell ref="AY9:BM9"/>
   </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>